--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>-17.8200</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -119,7 +131,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 3:32 PM</t>
+    <t>Friday, 30 May, 2025 3:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -832,18 +844,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -852,20 +864,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -898,7 +910,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -909,42 +921,75 @@
         <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>22.5</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>36</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>37</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>38</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>118.5</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>42</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -978,10 +1023,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -131,7 +140,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 3:42 PM</t>
+    <t>Friday, 30 May, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -822,7 +831,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -831,14 +840,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -848,14 +857,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -877,18 +886,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -897,31 +906,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -937,59 +946,92 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>39</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>118.5</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>40</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>32</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>41</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>42</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>246.5</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>43</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>44</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>45</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1028,10 +1070,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -140,7 +140,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 4:54 PM</t>
+    <t>Friday, 30 May, 2025 5:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -92,31 +92,61 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:1</t>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -140,7 +170,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 5:01 PM</t>
+    <t>Friday, 30 May, 2025 5:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -979,7 +1009,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -989,49 +1019,148 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>246.5</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>43</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>32</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>44</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>45</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>32</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>32</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>51</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>379.5</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>54</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>55</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1075,10 +1204,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -89,6 +89,30 @@
     <t>-17.8200</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -116,16 +140,16 @@
     <t>13.2000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
@@ -149,15 +173,21 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -170,7 +200,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 5:09 PM</t>
+    <t>Friday, 30 May, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -927,7 +957,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,31 +966,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -969,28 +999,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1002,31 +1032,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,20 +1065,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1059,7 +1089,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1068,28 +1098,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1101,66 +1131,165 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>379.5</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>53</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>54</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>40</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>55</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>40</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>60</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>40</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>61</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>569.82000000000005</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>65</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1219,10 +1348,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -89,6 +89,33 @@
     <t>-17.8200</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VINOSIN CREAM 75GM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -152,6 +179,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
@@ -167,12 +203,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -200,7 +230,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 5:15 PM</t>
+    <t>Friday, 30 May, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -940,7 +970,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -950,14 +980,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,7 +996,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -983,11 +1013,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -999,14 +1029,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1016,11 +1046,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1032,31 +1062,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,7 +1095,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1078,18 +1108,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,28 +1128,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1131,31 +1161,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1164,7 +1194,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1177,18 +1207,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1197,28 +1227,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1237,59 +1267,191 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>569.82000000000005</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>63</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>49</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>33</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>49</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>65</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>49</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>49</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>878.82000000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1363,10 +1525,30 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DELTASONE 0.75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -98,6 +110,27 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>RAPIZAPINE 30 MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>29.4000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -128,9 +161,6 @@
     <t>16.3200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -146,12 +176,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -224,13 +248,10 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 5:30 PM</t>
+    <t>Friday, 30 May, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -954,7 +975,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -970,7 +991,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -980,14 +1001,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -996,7 +1017,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1013,11 +1034,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1029,7 +1050,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1046,11 +1067,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1062,14 +1083,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1079,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1135,7 +1156,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,11 +1166,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1161,31 +1182,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,7 +1215,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1207,18 +1228,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,28 +1248,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1260,31 +1281,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,31 +1314,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1333,13 +1354,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1366,13 +1387,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1380,7 +1401,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1392,66 +1413,165 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>878.82000000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>57</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>73</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>75</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>18</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>57</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>76</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>78</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>57</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>24</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1012.14</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>80</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>81</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>82</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1665,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>102.00</t>
@@ -251,7 +251,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 5:53 PM</t>
+    <t>Friday, 30 May, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1222,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>102.00</t>
@@ -251,7 +251,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:00 PM</t>
+    <t>Friday, 30 May, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,7 +1222,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>29.4000</t>
+  </si>
+  <si>
+    <t>SYCOCETAM 500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
@@ -1123,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,14 +1145,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1149,7 +1161,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1166,11 +1178,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1182,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1206,7 +1218,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1222,7 +1234,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1232,14 +1244,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1248,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,11 +1277,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1281,31 +1293,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1314,31 +1326,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1354,13 +1366,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1371,7 +1383,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,28 +1392,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1413,28 +1425,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1446,28 +1458,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1479,7 +1491,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1492,15 +1504,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1512,66 +1524,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1012.14</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>80</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>82</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>61</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>24</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1074.1400000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>84</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>85</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>86</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1680,10 +1725,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:01 PM</t>
+    <t>Friday, 30 May, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -233,12 +254,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -263,7 +287,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:06 PM</t>
+    <t>Friday, 30 May, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1003,7 +1027,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1013,14 +1037,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1029,14 +1053,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1053,7 +1077,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1135,7 +1159,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1169,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,14 +1185,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1201,7 +1225,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1251,7 +1275,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1310,14 +1334,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,20 +1350,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1350,7 +1374,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1366,24 +1390,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,20 +1416,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1416,7 +1440,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1432,13 +1456,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1449,7 +1473,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,28 +1482,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1491,28 +1515,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1524,28 +1548,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1557,66 +1581,165 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1074.1400000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>84</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>68</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>85</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>68</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>90</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>68</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>24</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1194.78</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1730,10 +1853,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -77,12 +77,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DELTASONE 0.75MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -164,6 +173,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -269,7 +290,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -287,7 +308,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:27 PM</t>
+    <t>Friday, 30 May, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1004,14 +1025,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1027,7 +1048,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1044,7 +1065,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1060,7 +1081,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1070,14 +1091,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1086,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1110,7 +1131,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1126,7 +1147,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1136,11 +1157,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1152,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1192,7 +1213,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1202,11 +1223,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1218,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1235,14 +1256,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1251,14 +1272,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1275,7 +1296,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1291,7 +1312,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1301,11 +1322,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1317,14 +1338,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1341,7 +1362,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1400,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,20 +1437,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1440,7 +1461,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1456,24 +1477,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1482,20 +1503,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1506,7 +1527,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1522,13 +1543,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1539,7 +1560,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,28 +1569,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1581,28 +1602,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1614,28 +1635,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1647,28 +1668,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1680,66 +1701,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>75</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>95</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1194.78</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>92</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>93</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>94</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>97</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>75</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>27</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1239.6600000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1955,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DELTASONE 0.75MG 30 TAB.</t>
   </si>
   <si>
@@ -149,6 +161,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>RAPIZAPINE 30 MG 10 TAB.</t>
   </si>
   <si>
@@ -308,7 +329,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:33 PM</t>
+    <t>Friday, 30 May, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1025,14 +1046,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1041,14 +1062,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1058,14 +1079,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1074,14 +1095,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1091,14 +1112,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1107,14 +1128,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1131,7 +1152,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1147,7 +1168,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1157,14 +1178,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1173,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1197,7 +1218,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1213,7 +1234,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1223,14 +1244,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1239,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1263,7 +1284,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1279,7 +1300,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1289,14 +1310,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1305,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1322,14 +1343,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1338,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1378,7 +1399,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1388,14 +1409,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1404,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1428,7 +1449,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1444,7 +1465,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1461,7 +1482,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1487,11 +1508,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1503,20 +1524,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1527,7 +1548,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1543,24 +1564,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,20 +1590,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1609,13 +1630,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1626,7 +1647,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,31 +1656,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,31 +1689,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,31 +1722,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1734,31 +1755,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1767,66 +1788,132 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1239.6600000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>99</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>100</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>101</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>23</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>82</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>82</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>31</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>106</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>107</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>108</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2052,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -329,7 +338,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:35 PM</t>
+    <t>Friday, 30 May, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1399,7 +1408,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1409,11 +1418,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1498,7 +1507,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,14 +1517,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1533,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1548,7 +1557,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1590,31 +1599,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,20 +1632,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1647,7 +1656,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,31 +1665,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,13 +1705,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1729,21 +1738,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -1755,28 +1764,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1788,31 +1797,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1842,10 +1851,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1854,66 +1863,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1288.4000000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>106</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>107</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>85</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>31</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1329.4000000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>109</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>111</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2062,10 +2104,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ALLERFEN 180 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -80,18 +107,12 @@
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>128.00</t>
   </si>
   <si>
     <t>128.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -110,6 +131,18 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -131,6 +164,15 @@
     <t>-17.8200</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -203,6 +245,12 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -338,7 +386,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 6:36 PM</t>
+    <t>Friday, 30 May, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1045,7 +1093,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1055,14 +1103,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1071,14 +1119,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1088,14 +1136,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1104,14 +1152,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1121,11 +1169,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1137,14 +1185,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1154,14 +1202,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1170,14 +1218,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1194,7 +1242,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1210,7 +1258,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1220,14 +1268,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1236,14 +1284,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1260,7 +1308,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1276,7 +1324,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1286,14 +1334,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,7 +1350,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1319,14 +1367,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1335,14 +1383,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1359,7 +1407,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,7 +1456,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1425,7 +1473,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1441,7 +1489,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1451,14 +1499,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1491,7 +1539,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1507,7 +1555,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1517,14 +1565,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1533,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1573,7 +1621,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1583,14 +1631,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,14 +1647,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,14 +1664,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,28 +1680,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1665,31 +1713,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,31 +1746,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,31 +1779,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,31 +1812,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1797,31 +1845,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1830,31 +1878,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1863,31 +1911,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1896,66 +1944,231 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1329.4000000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>114</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>115</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>101</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>109</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>111</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>58</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>101</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>88</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>101</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>101</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>121</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>123</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>101</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>38</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1641.79</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>125</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>126</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>127</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2109,10 +2322,35 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.50</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -212,6 +221,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>RAPIZAPINE 30 MG 10 TAB.</t>
   </si>
   <si>
@@ -305,9 +323,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -344,6 +359,9 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
     <t>حنه فاتيكا اسود 1 كيس</t>
   </si>
   <si>
@@ -383,10 +401,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Friday, 30 May, 2025 7:36 PM</t>
+    <t>Friday, 30 May, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1339,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1334,14 +1349,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1350,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1374,7 +1389,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1390,7 +1405,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1407,7 +1422,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1423,7 +1438,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1433,11 +1448,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1489,7 +1504,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1506,7 +1521,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1522,7 +1537,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1532,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1581,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1598,11 +1613,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1687,7 +1702,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1697,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1753,7 +1768,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1779,7 +1794,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1796,11 +1811,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,31 +1893,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,31 +1926,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,31 +1959,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,28 +1992,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2017,21 +2032,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2050,13 +2065,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2067,7 +2082,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2083,21 +2098,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2116,59 +2131,158 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1641.79</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>106</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>124</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c t="s" r="Q41" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>126</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>106</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>127</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>129</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>106</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>38</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1777.29</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2347,10 +2461,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>29.4000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SYCOCETAM 500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -311,6 +320,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -389,6 +407,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>شفرات AVUVA</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -401,7 +428,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 7:44 PM</t>
+    <t>Friday, 30 May, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1636,7 +1663,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,11 +1673,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1662,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1686,7 +1713,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1702,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1834,7 +1861,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1884,7 +1911,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1900,7 +1927,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1926,20 +1953,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1950,7 +1977,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1966,24 +1993,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,31 +2019,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,7 +2085,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2071,15 +2098,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2091,28 +2118,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2124,28 +2151,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2157,31 +2184,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2190,28 +2217,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2223,66 +2250,165 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>112</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>133</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>112</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>136</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>138</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>112</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>38</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c t="s" r="Q46" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1777.29</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>131</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>132</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1876.9400000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>139</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>140</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>141</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2602,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -242,15 +251,15 @@
     <t>29.4000</t>
   </si>
   <si>
+    <t>RONEX 120ML FEMALE CLEANSER</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
     <t>39.00</t>
   </si>
   <si>
-    <t>12.8700</t>
-  </si>
-  <si>
     <t>SYCOCETAM 500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -278,6 +287,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -404,7 +422,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>شفرات AVUVA</t>
@@ -428,7 +449,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 7:52 PM</t>
+    <t>Friday, 30 May, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,7 +1189,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1178,14 +1199,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1194,14 +1215,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1218,7 +1239,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1234,7 +1255,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1265,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1267,7 +1288,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1277,14 +1298,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1300,7 +1321,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1331,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1350,7 +1371,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,7 +1404,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1399,7 +1420,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1430,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1449,7 +1470,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1465,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,7 +1503,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1498,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,11 +1529,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1564,7 +1585,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1581,7 +1602,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1597,7 +1618,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1640,11 +1661,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1680,7 +1701,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1696,7 +1717,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,11 +1892,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,7 +1974,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,7 +2073,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2065,18 +2086,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2085,28 +2106,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2118,31 +2139,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,31 +2172,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,28 +2205,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2224,21 +2245,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2257,13 +2278,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2274,7 +2295,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2290,21 +2311,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2316,28 +2337,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2349,66 +2370,165 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1876.9400000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>139</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>118</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>140</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>142</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>18</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>118</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>143</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>145</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>118</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>41</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1999.71</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>146</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>147</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>148</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2617,10 +2737,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -329,13 +329,13 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:6</t>
   </si>
   <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
   </si>
   <si>
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
@@ -422,10 +422,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>شفرات AVUVA</t>
@@ -449,7 +446,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 8:32 PM</t>
+    <t>Friday, 30 May, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2031,7 +2028,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2394,7 +2391,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,7 +2400,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2420,11 +2417,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2436,7 +2433,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2453,7 +2450,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2469,14 +2466,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,13 +2495,13 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="P50" s="13">
-        <v>1999.71</v>
+        <v>2018.03</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c t="s" r="A51" s="14">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2512,13 +2509,13 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c t="s" r="G51" s="15">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
       <c t="s" r="K51" s="17">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 8:34 PM</t>
+    <t>Friday, 30 May, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -317,6 +317,12 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VINOSIN CREAM 75GM</t>
   </si>
   <si>
@@ -446,7 +452,16 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 8:38 PM</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Friday, 30 May, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1993,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +2003,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2136,31 +2151,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,31 +2184,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,31 +2217,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,28 +2250,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2268,28 +2283,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2301,28 +2316,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2341,21 +2356,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2367,31 +2382,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2400,7 +2415,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2413,18 +2428,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,7 +2448,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2446,15 +2461,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2473,59 +2488,158 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>145</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>146</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>120</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>41</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>75</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2018.03</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>145</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>147</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>74</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>120</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>132</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>148</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
         <v>146</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>147</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>120</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>121</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2091.0300000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>150</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>151</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>152</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2749,10 +2863,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -461,7 +461,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 8:45 PM</t>
+    <t>Friday, 30 May, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -152,15 +164,21 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
   </si>
   <si>
@@ -170,12 +188,21 @@
     <t>66.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -221,6 +248,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -230,6 +266,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -365,15 +410,21 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>44:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -461,7 +512,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 9:01 PM</t>
+    <t>Friday, 30 May, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1310,11 +1361,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1326,14 +1377,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1343,11 +1394,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1359,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1399,7 +1450,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1409,11 +1460,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1425,14 +1476,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1458,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1475,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1491,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,14 +1559,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1524,20 +1575,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1548,7 +1599,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1564,7 +1615,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,14 +1625,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1590,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1607,14 +1658,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1623,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1691,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1673,7 +1724,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1696,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1706,11 +1757,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1722,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1755,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1856,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1854,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1871,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1887,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,11 +1955,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1920,14 +1971,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1941,10 +1992,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1977,7 +2028,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1993,7 +2044,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2019,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2059,7 +2110,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2109,7 +2160,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2158,7 +2209,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2168,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2184,31 +2235,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,20 +2268,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2241,7 +2292,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,31 +2301,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2283,28 +2334,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2316,28 +2367,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2349,31 +2400,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2389,24 +2440,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2415,7 +2466,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2428,18 +2479,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2448,28 +2499,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2481,28 +2532,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2514,28 +2565,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2547,28 +2598,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2580,66 +2631,264 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2091.0300000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>18</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>60</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>155</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>157</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>60</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>158</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>60</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>161</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>162</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>163</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>60</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>45</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>89</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>60</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>149</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>150</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>151</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>152</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>165</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>163</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>60</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>138</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2496.9299999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>167</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>168</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>169</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2878,10 +3127,40 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>84.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -134,6 +146,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -230,249 +254,255 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RAPIZAPINE 30 MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>29.40</t>
+  </si>
+  <si>
+    <t>29.4000</t>
+  </si>
+  <si>
+    <t>RONEX 120ML FEMALE CLEANSER</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>SYCOCETAM 500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VINOSIN CREAM 75GM</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>32.6400</t>
+  </si>
+  <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RAPIZAPINE 30 MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>29.40</t>
-  </si>
-  <si>
-    <t>29.4000</t>
-  </si>
-  <si>
-    <t>RONEX 120ML FEMALE CLEANSER</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>SYCOCETAM 500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>T4-THYRO 50 MCG 100 TABS.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VINOSIN CREAM 75GM</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>3:6</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>32.6400</t>
-  </si>
-  <si>
-    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا اسود 1 كيس</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>راجون احمر 250 مل</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -494,9 +524,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -512,7 +539,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 9:27 PM</t>
+    <t>Friday, 30 May, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1219,7 +1246,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1229,14 +1256,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1252,7 +1279,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1285,7 +1312,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1295,14 +1322,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1318,7 +1345,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1328,14 +1355,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1344,14 +1371,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1368,7 +1395,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1394,14 +1421,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,14 +1437,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1427,14 +1454,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1443,14 +1470,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1460,14 +1487,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1476,14 +1503,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1500,7 +1527,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1516,7 +1543,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1526,14 +1553,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,14 +1586,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1575,20 +1602,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1599,7 +1626,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1608,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,11 +1652,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1641,31 +1668,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1691,11 +1718,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1707,14 +1734,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1724,14 +1751,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1740,14 +1767,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,14 +1784,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1773,14 +1800,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,14 +1850,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1839,14 +1866,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,14 +1916,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1905,14 +1932,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1922,14 +1949,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,14 +1998,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2004,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,14 +2147,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2279,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,14 +2411,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2433,31 +2460,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2466,31 +2493,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2506,13 +2533,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2523,7 +2550,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2539,24 +2566,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,31 +2592,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,31 +2625,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,31 +2658,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,31 +2691,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,31 +2724,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,31 +2757,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2763,31 +2790,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2796,31 +2823,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2829,66 +2856,165 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2496.9299999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>167</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>168</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>169</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>172</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>68</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>53</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>173</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>100</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>68</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>158</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>174</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>172</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>68</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>149</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2645.9299999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>176</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>177</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>178</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3157,10 +3283,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -179,9 +191,6 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -203,6 +212,15 @@
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
   </si>
   <si>
@@ -263,6 +281,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
   </si>
   <si>
@@ -299,6 +326,24 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>135.6300</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -338,12 +383,15 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>SYCOCETAM 500MG 20 F.C. TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -458,9 +506,6 @@
     <t>44:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>13.2000</t>
   </si>
   <si>
@@ -509,7 +554,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>شفرات AVUVA</t>
@@ -521,6 +566,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -536,10 +584,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Friday, 30 May, 2025 9:28 PM</t>
+    <t>Friday, 30 May, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1487,11 +1532,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1503,14 +1548,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1520,11 +1565,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1536,14 +1581,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1576,7 +1621,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1586,11 +1631,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1602,14 +1647,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1619,11 +1664,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1635,7 +1680,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1652,14 +1697,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1681,15 +1726,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1701,14 +1746,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1718,14 +1763,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1734,20 +1779,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1774,7 +1819,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1791,7 +1836,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1807,7 +1852,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1824,7 +1869,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1833,7 +1878,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1850,11 +1895,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1866,14 +1911,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,14 +1928,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1906,7 +1951,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1972,7 +2017,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1989,7 +2034,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2005,7 +2050,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,14 +2060,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2038,7 +2083,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2071,7 +2116,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,11 +2126,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2097,14 +2142,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2114,14 +2159,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2130,14 +2175,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2147,14 +2192,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2163,14 +2208,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,11 +2225,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2196,14 +2241,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2213,14 +2258,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2229,14 +2274,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,11 +2291,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2262,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2283,10 +2328,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2295,14 +2340,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,14 +2373,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,11 +2390,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2361,14 +2406,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,11 +2423,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2394,14 +2439,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2456,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,14 +2472,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,14 +2489,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2460,14 +2505,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,11 +2522,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2493,14 +2538,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,11 +2555,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2533,7 +2578,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,11 +2588,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2559,31 +2604,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2592,31 +2637,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2632,13 +2677,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2649,7 +2694,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2665,21 +2710,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2691,28 +2736,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2731,24 +2776,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,31 +2802,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2790,7 +2835,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2803,18 +2848,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2823,28 +2868,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2856,28 +2901,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2889,28 +2934,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2922,28 +2967,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2955,66 +3000,297 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2645.9299999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>176</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>177</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>178</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>179</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>23</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>74</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>180</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>182</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>23</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>74</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>185</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>115</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>74</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>169</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>23</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>74</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>14</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>187</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>188</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>74</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>57</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>189</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>115</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>74</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>173</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>190</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>188</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>74</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>106</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2930.415</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>191</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>192</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>193</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3298,10 +3574,45 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -149,13 +149,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
@@ -278,9 +281,6 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -362,6 +362,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>RAPIZAPINE 30 MG 10 TAB.</t>
   </si>
   <si>
@@ -575,16 +581,13 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 9:58 PM</t>
+    <t>Friday, 30 May, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1506,7 +1509,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1515,14 +1518,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1532,11 +1535,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>29</v>
@@ -1548,14 +1551,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1569,7 +1572,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1581,7 +1584,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1598,11 +1601,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>29</v>
@@ -1614,14 +1617,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1631,11 +1634,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1647,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1664,11 +1667,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1680,7 +1683,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1697,11 +1700,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1713,7 +1716,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1730,11 +1733,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1763,11 +1766,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1792,15 +1795,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1812,7 +1815,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1829,11 +1832,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1845,7 +1848,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1862,11 +1865,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>29</v>
@@ -1878,7 +1881,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1895,11 +1898,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1928,14 +1931,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1951,7 +1954,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2017,7 +2020,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2116,7 +2119,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2225,7 +2228,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2248,7 +2251,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2262,10 +2265,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,7 +2294,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2314,7 +2317,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,14 +2327,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2347,7 +2350,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2380,7 +2383,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2423,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2479,7 +2482,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2555,11 +2558,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2571,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2611,7 +2614,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2621,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2637,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2654,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2670,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2703,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2769,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2786,14 +2789,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2802,28 +2805,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -2835,31 +2838,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2875,13 +2878,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2889,10 +2892,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2901,28 +2904,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2934,28 +2937,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2967,28 +2970,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3013,15 +3016,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3040,24 +3043,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3066,7 +3069,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3079,18 +3082,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3099,28 +3102,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3132,28 +3135,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3165,28 +3168,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3205,21 +3208,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3238,59 +3241,92 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2930.415</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>191</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>46</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>75</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>106</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2986.415</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>192</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
         <v>193</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>194</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3609,10 +3645,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -587,7 +596,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:11 PM</t>
+    <t>Friday, 30 May, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1831,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1839,7 +1848,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1855,7 +1864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1888,7 +1897,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1938,7 +1947,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2037,7 +2046,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2086,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2152,7 +2161,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2169,7 +2178,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2185,7 +2194,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2202,7 +2211,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2228,7 +2237,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2251,7 +2260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,11 +2435,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2449,7 +2458,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2466,7 +2475,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2548,7 +2557,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2614,7 +2623,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2763,7 +2772,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2779,7 +2788,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,11 +2798,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2845,17 +2854,17 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2878,7 +2887,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,14 +2897,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,11 +2996,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3010,7 +3019,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,7 +3135,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3142,7 +3151,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3218,11 +3227,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3284,49 +3293,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2986.415</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>192</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>193</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>194</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>46</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>75</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>109</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3154.415</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>195</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>196</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>197</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3650,10 +3692,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -158,45 +170,42 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>DELTASONE 0.75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DELTASONE 0.75MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -506,6 +515,9 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
     <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -572,6 +584,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شفرات AVUVA</t>
   </si>
   <si>
@@ -588,6 +606,12 @@
   </si>
   <si>
     <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>39:0</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
@@ -1518,7 +1542,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1527,14 +1551,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1544,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1560,14 +1584,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1601,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1634,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,11 +1667,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1659,14 +1683,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,11 +1700,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1692,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,11 +1733,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1725,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,11 +1766,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1758,7 +1782,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1775,14 +1799,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1791,7 +1815,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1804,15 +1828,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1824,7 +1848,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1841,11 +1865,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1857,31 +1881,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1931,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,14 +1964,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1956,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +1997,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,14 +2063,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2055,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2162,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,11 +2261,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2327,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,11 +2360,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2385,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2591,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2583,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,11 +2657,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,7 +2706,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2699,11 +2723,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2715,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,31 +2904,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,31 +2937,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,31 +2970,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,31 +3003,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,31 +3036,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,28 +3069,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3078,28 +3102,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3111,31 +3135,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,28 +3168,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3177,28 +3201,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3210,7 +3234,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3223,18 +3247,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3243,28 +3267,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3283,21 +3307,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3309,66 +3333,231 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3154.415</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>195</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>196</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>197</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>23</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>78</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>14</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>198</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>50</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>78</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>59</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>199</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>200</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>78</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>59</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>201</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>121</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>78</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>182</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>202</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>50</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>78</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>112</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3324.5599999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>203</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>204</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>205</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3697,10 +3886,35 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>29.4000</t>
   </si>
   <si>
+    <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>-127.0000</t>
+  </si>
+  <si>
     <t>RONEX 120ML FEMALE CLEANSER</t>
   </si>
   <si>
@@ -620,7 +629,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:14 PM</t>
+    <t>Friday, 30 May, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2449,7 +2458,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2581,7 +2590,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2598,7 +2607,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2680,7 +2689,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2746,7 +2755,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2862,7 +2871,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2878,7 +2887,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2895,7 +2904,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2911,7 +2920,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,11 +2930,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,11 +2963,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3010,17 +3019,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3043,7 +3052,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3175,7 +3184,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,11 +3227,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3300,7 +3309,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3317,7 +3326,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3340,7 +3349,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3482,11 +3491,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3498,14 +3507,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3515,49 +3524,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>205</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>50</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>78</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>112</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3324.5599999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>203</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>204</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>205</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3197.5599999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>206</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>207</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>208</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3911,10 +3953,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -404,6 +404,18 @@
     <t>-127.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>RONEX 120ML FEMALE CLEANSER</t>
   </si>
   <si>
@@ -629,7 +641,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:16 PM</t>
+    <t>Friday, 30 May, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2491,7 +2503,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2755,7 +2767,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2871,7 +2883,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2887,7 +2899,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,28 +3057,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>29</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3309,7 +3321,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3342,7 +3354,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3359,11 +3371,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3392,11 +3404,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3458,11 +3470,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3557,49 +3569,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>209</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>50</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>78</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>112</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3197.5599999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>206</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>207</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>208</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3207.6100000000001</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>210</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>211</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>212</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3958,10 +4003,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:17 PM</t>
+    <t>Friday, 30 May, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -422,6 +422,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -608,7 +617,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شفرات AVUVA</t>
@@ -641,7 +650,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:19 PM</t>
+    <t>Friday, 30 May, 2025 10:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2569,7 +2578,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2583,10 +2592,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2668,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2767,7 +2776,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2833,7 +2842,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2899,7 +2908,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2949,7 +2958,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2982,7 +2991,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3017,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,17 +3106,17 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3130,7 +3139,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3196,7 +3205,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3262,7 +3271,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,7 +3396,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3427,7 +3436,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3470,11 +3479,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3569,11 +3578,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3602,49 +3611,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>212</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>50</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>78</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>112</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3207.6100000000001</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>210</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>211</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>212</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3237.6100000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>213</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>214</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>215</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4008,10 +4050,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:21 PM</t>
+    <t>Friday, 30 May, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -422,6 +422,21 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>-110.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -560,10 +575,10 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>44:0</t>
-  </si>
-  <si>
-    <t>13.2000</t>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>33.2000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -617,7 +632,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>شفرات AVUVA</t>
@@ -635,13 +650,19 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>39:0</t>
+    <t>40:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
@@ -650,7 +671,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:22 PM</t>
+    <t>Friday, 30 May, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2578,7 +2599,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,11 +2708,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,11 +2873,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,11 +3071,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,11 +3104,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,28 +3153,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3248,11 +3269,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3314,11 +3335,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,7 +3417,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,7 +3450,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3479,11 +3500,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3512,11 +3533,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3644,49 +3665,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3237.6100000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>213</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>214</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>215</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>219</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>50</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>78</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>112</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3189.6100000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>220</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>221</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>222</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4055,10 +4109,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -395,6 +395,15 @@
     <t>29.4000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>RIVAROSPIRE 10 MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -527,6 +536,9 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -671,7 +683,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:25 PM</t>
+    <t>Friday, 30 May, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2500,7 +2512,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2517,7 +2529,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2533,7 +2545,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,7 +2677,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2679,10 +2691,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2741,11 +2753,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2764,7 +2776,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2781,7 +2793,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,7 +2809,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,14 +2819,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2863,7 +2875,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,11 +2885,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2929,7 +2941,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2995,7 +3007,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,11 +3050,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3127,7 +3139,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,11 +3149,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3193,24 +3205,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,31 +3231,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3358,7 +3370,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,11 +3380,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3401,11 +3413,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3424,7 +3436,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,7 +3495,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3500,14 +3512,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3533,14 +3545,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3566,14 +3578,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3599,11 +3611,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3632,7 +3644,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3655,7 +3667,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3688,7 +3700,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3698,49 +3710,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>222</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>121</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>78</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>201</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>223</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>50</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>78</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>112</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q79" s="12">
+      <c t="s" r="Q81" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3189.6100000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>220</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>221</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>222</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3332.6100000000001</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>224</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>225</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>226</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4114,10 +4192,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -683,7 +683,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:27 PM</t>
+    <t>Friday, 30 May, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>-74.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -272,6 +281,15 @@
     <t>-17.8200</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -485,6 +503,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -554,12 +581,6 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
     <t>WESTABREATH 500 MCG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -683,7 +704,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:28 PM</t>
+    <t>Friday, 30 May, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,7 +1609,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1598,14 +1619,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1647,14 +1668,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1671,7 +1692,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1687,7 +1708,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1697,11 +1718,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>33</v>
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1730,14 +1751,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1753,7 +1774,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1763,11 +1784,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1779,14 +1800,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1796,7 +1817,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1829,11 +1850,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>29</v>
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1895,11 +1916,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1918,7 +1939,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1935,7 +1956,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1951,24 +1972,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1977,20 +1998,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2001,7 +2022,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2017,7 +2038,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2034,7 +2055,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2050,7 +2071,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2067,7 +2088,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2083,7 +2104,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2100,7 +2121,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2116,7 +2137,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2133,7 +2154,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2149,7 +2170,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2166,7 +2187,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2182,7 +2203,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2199,7 +2220,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2215,7 +2236,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2248,7 +2269,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2265,7 +2286,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2281,7 +2302,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2298,7 +2319,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2314,7 +2335,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2331,7 +2352,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2347,7 +2368,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2364,7 +2385,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2380,7 +2401,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2413,7 +2434,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2446,7 +2467,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2460,10 +2481,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,11 +2510,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2562,7 +2583,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2578,7 +2599,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2661,7 +2682,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2687,11 +2708,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,14 +2840,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2842,7 +2863,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2925,7 +2946,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2941,7 +2962,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3007,7 +3028,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3017,11 +3038,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,31 +3285,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3304,24 +3325,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,31 +3351,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3363,31 +3384,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3396,31 +3417,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3436,21 +3457,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3462,28 +3483,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3502,13 +3523,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3519,7 +3540,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3535,24 +3556,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3568,21 +3589,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3594,31 +3615,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,7 +3648,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3640,18 +3661,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3660,28 +3681,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3693,31 +3714,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3726,31 +3747,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3759,66 +3780,165 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3332.6100000000001</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>224</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>225</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>226</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>227</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>81</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>62</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>229</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>127</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>81</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>208</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>230</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>53</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>81</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>118</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3356.29</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>231</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>232</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>233</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4202,10 +4322,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -704,7 +704,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:30 PM</t>
+    <t>Friday, 30 May, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>9.9000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
   </si>
   <si>
@@ -299,6 +311,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -323,7 +344,7 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>LOLAWEST 3GM 6 SACHETS</t>
@@ -704,7 +725,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:36 PM</t>
+    <t>Friday, 30 May, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1465,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1454,14 +1475,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1470,7 +1491,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1487,14 +1508,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1510,7 +1531,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1520,14 +1541,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1543,7 +1564,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1553,14 +1574,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1569,14 +1590,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1593,7 +1614,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1609,7 +1630,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1619,14 +1640,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1635,14 +1656,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1659,7 +1680,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1692,7 +1713,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1708,7 +1729,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1718,14 +1739,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1734,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1784,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1817,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1906,7 +1927,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1916,14 +1937,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1956,7 +1977,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1982,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1998,20 +2019,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2022,7 +2043,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2038,24 +2059,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2130,7 +2151,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2444,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2477,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2576,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2682,7 +2703,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2698,7 +2719,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2764,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2774,11 +2795,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2811,10 +2832,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2873,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3005,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3061,7 +3082,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3094,7 +3115,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3120,7 +3141,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3137,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3252,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3269,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3302,14 +3323,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3318,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3335,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3368,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3384,31 +3405,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3417,31 +3438,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3450,31 +3471,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3483,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3516,28 +3537,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3549,28 +3570,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3582,28 +3603,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3615,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3648,31 +3669,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3681,7 +3702,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3694,18 +3715,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3714,31 +3735,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3747,7 +3768,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3760,18 +3781,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3780,28 +3801,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3813,31 +3834,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3846,28 +3867,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3879,66 +3900,132 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>236</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>134</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>85</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>215</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3356.29</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>231</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>232</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>233</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>237</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>57</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>85</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>125</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3487.3400000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>238</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>239</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>240</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4337,10 +4424,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:40 PM</t>
+    <t>Friday, 30 May, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -419,6 +419,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -503,18 +515,12 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>SYCOCETAM 500MG 20 F.C. TABS</t>
   </si>
   <si>
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -680,7 +686,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -725,7 +731,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:43 PM</t>
+    <t>Friday, 30 May, 2025 10:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2620,24 +2626,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2769,7 +2775,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2785,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2868,7 +2874,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -2983,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2997,10 +3003,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3082,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3214,7 +3220,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,31 +3477,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3544,7 +3550,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3558,10 +3564,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3686,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3709,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,7 +3741,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>74</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3824,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3874,7 +3880,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3921,10 +3927,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3983,49 +3989,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3487.3400000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>238</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>239</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>57</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>85</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>125</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3559.3400000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>240</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>241</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>242</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4434,10 +4473,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>-17.8200</t>
   </si>
   <si>
@@ -503,9 +512,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -675,9 +681,6 @@
   </si>
   <si>
     <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1669,7 +1672,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1679,14 +1682,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1695,14 +1698,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1719,7 +1722,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1752,7 +1755,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1768,7 +1771,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1778,14 +1781,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1794,14 +1797,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1811,11 +1814,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>37</v>
@@ -1827,14 +1830,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,14 +1847,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1860,14 +1863,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1877,11 +1880,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1893,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,11 +1913,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -1926,14 +1929,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,7 +1946,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1966,7 +1969,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,11 +1979,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2025,14 +2028,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2045,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,20 +2061,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2082,7 +2085,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2098,24 +2101,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2177,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2263,7 +2266,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2280,7 +2283,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2296,7 +2299,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2313,7 +2316,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2329,7 +2332,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2346,7 +2349,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2362,7 +2365,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2379,7 +2382,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2395,7 +2398,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2412,7 +2415,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2428,7 +2431,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2461,7 +2464,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2478,7 +2481,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2494,7 +2497,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2527,7 +2530,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2544,7 +2547,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2560,7 +2563,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2577,7 +2580,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2593,7 +2596,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,7 +2606,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2632,15 +2635,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2652,20 +2655,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2673,10 +2676,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2725,7 +2728,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2742,7 +2745,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2758,7 +2761,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2775,7 +2778,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2791,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2837,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2853,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2870,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2923,7 +2926,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2937,10 +2940,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2956,7 +2959,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,11 +3002,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>30</v>
@@ -3022,7 +3025,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3036,10 +3039,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,14 +3051,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3068,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3121,7 +3124,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,11 +3167,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3180,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3213,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3253,7 +3256,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3378,14 +3381,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3398,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,31 +3513,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>134</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3583,13 +3586,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3597,10 +3600,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,28 +3612,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3642,28 +3645,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3675,28 +3678,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3721,15 +3724,15 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3748,24 +3751,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,7 +3777,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3787,18 +3790,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>74</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,7 +3810,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3820,18 +3823,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,28 +3843,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3880,24 +3883,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3906,31 +3909,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3946,24 +3949,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3972,31 +3975,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4012,59 +4015,92 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3559.3400000000001</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>240</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>61</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>89</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>128</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3586.3400000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>241</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>242</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>243</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4478,10 +4514,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -3600,10 +3600,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4070,7 +4070,7 @@
     </row>
     <row r="89" ht="25.5" customHeight="1">
       <c r="P89" s="13">
-        <v>3586.3400000000001</v>
+        <v>3595.3400000000001</v>
       </c>
       <c r="Q89" s="13"/>
     </row>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:46 PM</t>
+    <t>Friday, 30 May, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -716,6 +716,9 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -734,7 +737,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 10:59 PM</t>
+    <t>Friday, 30 May, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3949,7 +3952,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3982,7 +3985,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3996,10 +3999,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4008,14 +4011,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4025,14 +4028,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4048,7 +4051,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4058,49 +4061,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3595.3400000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>241</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>61</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>89</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>128</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3615.3400000000001</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>242</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
         <v>243</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>244</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4519,10 +4555,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -107,10 +107,13 @@
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>9.9000</t>
+    <t>19.8000</t>
   </si>
   <si>
     <t>ASMAKAST 5 MG 30 CHEWABLE TAB</t>
@@ -122,9 +125,6 @@
     <t>79.2000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -179,6 +179,15 @@
     <t>-74.0000</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -371,9 +380,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>19.8000</t>
-  </si>
-  <si>
     <t>NEVILOB 2.5 MG 14 TAB.</t>
   </si>
   <si>
@@ -737,7 +743,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:00 PM</t>
+    <t>Friday, 30 May, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1516,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1520,14 +1526,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1536,7 +1542,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1553,14 +1559,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1741,7 +1747,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1751,11 +1757,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1767,14 +1773,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1784,14 +1790,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1800,14 +1806,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1824,7 +1830,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1840,7 +1846,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1850,14 +1856,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1866,14 +1872,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1883,14 +1889,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1906,7 +1912,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1916,11 +1922,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -1932,14 +1938,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1949,7 +1955,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1982,11 +1988,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -1998,14 +2004,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,11 +2021,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2031,14 +2037,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2048,11 +2054,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2071,7 +2077,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2088,7 +2094,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2104,24 +2110,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2130,20 +2136,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2154,7 +2160,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2170,7 +2176,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2180,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2302,7 +2308,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2319,7 +2325,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2335,7 +2341,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2352,7 +2358,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2368,7 +2374,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2385,7 +2391,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2401,7 +2407,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2418,7 +2424,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2434,7 +2440,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2451,7 +2457,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2467,7 +2473,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>30</v>
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2510,14 +2516,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2543,11 +2549,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2592,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2609,14 +2615,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,11 +2648,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2658,28 +2664,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2691,31 +2697,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2731,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2745,10 +2751,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,14 +2763,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,14 +2813,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2896,7 +2902,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2962,7 +2968,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2976,10 +2982,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2995,7 +3001,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,11 +3044,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3061,7 +3067,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3075,10 +3081,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3087,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3110,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3160,7 +3166,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,14 +3176,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,11 +3209,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,11 +3242,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3292,7 +3298,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,14 +3308,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,14 +3357,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,14 +3374,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3384,14 +3390,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,14 +3407,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3417,14 +3423,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,14 +3440,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,11 +3473,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3483,14 +3489,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,11 +3506,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,14 +3539,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3549,31 +3555,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,31 +3588,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>184</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3622,13 +3628,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3636,10 +3642,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,28 +3654,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3681,28 +3687,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3714,28 +3720,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3754,21 +3760,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3780,31 +3786,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,7 +3819,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3826,18 +3832,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>228</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>78</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3859,18 +3865,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3879,28 +3885,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3912,31 +3918,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3952,24 +3958,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3978,28 +3984,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4011,31 +4017,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4044,31 +4050,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4077,66 +4083,99 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3615.3400000000001</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>242</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>243</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>64</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>92</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>130</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3641.2399999999998</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>244</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>245</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>246</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4560,10 +4599,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -725,6 +725,12 @@
     <t>كيس جمع بول</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -743,7 +749,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:01 PM</t>
+    <t>Friday, 30 May, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4024,7 +4030,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4034,14 +4040,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4071,10 +4077,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4100,14 +4106,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4133,49 +4139,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3641.2399999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>244</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>245</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>64</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>92</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>130</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>3657.2399999999998</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>246</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>247</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>248</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4604,10 +4643,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:09 PM</t>
+    <t>Friday, 30 May, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>4:3</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>DELTASONE 0.75MG 30 TAB.</t>
   </si>
   <si>
@@ -287,9 +296,6 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
@@ -587,6 +593,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -749,7 +767,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:13 PM</t>
+    <t>Friday, 30 May, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1918,24 +1936,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1951,7 +1969,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,11 +1979,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1994,7 +2012,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,11 +2078,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2076,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,11 +2111,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -2116,7 +2134,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2151,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,24 +2167,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2175,31 +2193,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2266,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,7 +2292,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2291,11 +2309,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2307,7 +2325,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2324,11 +2342,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2375,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,7 +2530,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2526,7 +2544,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>30</v>
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,11 +2606,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2604,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,11 +2705,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2703,28 +2721,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2736,31 +2754,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2776,7 +2794,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2790,10 +2808,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2941,7 +2959,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3007,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3021,10 +3039,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3040,7 +3058,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>30</v>
@@ -3106,7 +3124,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3120,10 +3138,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3205,7 +3223,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3266,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,11 +3299,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3337,7 +3355,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>30</v>
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,11 +3464,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>30</v>
@@ -3462,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3596,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,31 +3612,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3634,13 +3652,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3648,10 +3666,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,31 +3678,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,31 +3711,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,28 +3744,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3759,28 +3777,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3792,28 +3810,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3825,31 +3843,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,31 +3876,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,7 +3909,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3904,18 +3922,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,31 +3942,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3957,7 +3975,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3970,18 +3988,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,28 +4008,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4023,7 +4041,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4036,15 +4054,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>46</v>
@@ -4056,28 +4074,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4089,28 +4107,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>46</v>
@@ -4122,28 +4140,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4155,66 +4173,132 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>250</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>141</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>73</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>227</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>3657.2399999999998</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>246</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>247</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>248</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>251</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>64</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>73</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>132</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>3904.2399999999998</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>252</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>253</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>254</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4648,10 +4732,20 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -767,7 +767,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:22 PM</t>
+    <t>Friday, 30 May, 2025 11:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -362,6 +362,21 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60 MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -569,9 +584,6 @@
     <t>53.00</t>
   </si>
   <si>
-    <t>53.0000</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -620,6 +632,21 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>5:6</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>58.0800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
@@ -734,6 +761,12 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -767,7 +800,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:32 PM</t>
+    <t>Friday, 30 May, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2464,7 +2497,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2490,14 +2523,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2573,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,14 +2589,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,11 +2606,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2589,14 +2622,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2606,14 +2639,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2622,14 +2655,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2738,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2754,28 +2787,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2787,31 +2820,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3025,7 +3058,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3084,14 +3117,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3134,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3150,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,11 +3167,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3150,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,14 +3200,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3183,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,11 +3332,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3322,7 +3355,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3365,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3348,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3388,7 +3421,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3497,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3530,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,11 +3563,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3546,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3596,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,31 +3711,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3711,31 +3744,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,14 +3794,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,11 +3860,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3909,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3959,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3975,7 +4008,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3992,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4008,14 +4041,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,14 +4058,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4041,7 +4074,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4058,14 +4091,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4074,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,11 +4124,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4107,14 +4140,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4140,14 +4173,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4157,14 +4190,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4173,14 +4206,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4190,14 +4223,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4223,14 +4256,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4239,7 +4272,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4256,49 +4289,148 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>3904.2399999999998</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>252</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>253</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>254</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>258</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>259</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>73</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>76</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>261</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>146</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>73</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>236</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>262</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>64</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>73</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>137</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4030.3200000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>263</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>264</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>265</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4742,10 +4874,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:34 PM</t>
+    <t>Friday, 30 May, 2025 11:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>0:2</t>
   </si>
   <si>
     <t>36.00</t>
@@ -107,9 +107,6 @@
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -224,7 +221,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>1:1</t>
   </si>
   <si>
     <t>DELAREX 5MG 30TAB</t>
@@ -254,9 +251,6 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -800,7 +794,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:36 PM</t>
+    <t>Friday, 30 May, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1567,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1583,14 +1577,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1599,7 +1593,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1616,14 +1610,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1632,14 +1626,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1649,11 +1643,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>30</v>
@@ -1665,7 +1659,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1682,11 +1676,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1698,14 +1692,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1715,11 +1709,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>30</v>
@@ -1731,14 +1725,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,11 +1742,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>30</v>
@@ -1764,14 +1758,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1781,11 +1775,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1797,7 +1791,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1814,11 +1808,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -1830,14 +1824,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,11 +1841,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>30</v>
@@ -1863,14 +1857,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1880,14 +1874,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1896,7 +1890,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1913,14 +1907,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1929,14 +1923,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1950,10 +1944,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1962,28 +1956,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1995,7 +1989,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2012,11 +2006,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>30</v>
@@ -2028,7 +2022,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2049,7 +2043,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>30</v>
@@ -2061,14 +2055,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2078,11 +2072,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>30</v>
@@ -2094,14 +2088,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,11 +2105,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>30</v>
@@ -2127,7 +2121,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2144,11 +2138,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>30</v>
@@ -2160,14 +2154,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,11 +2171,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>30</v>
@@ -2193,7 +2187,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2210,11 +2204,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2226,28 +2220,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2259,7 +2253,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2276,11 +2270,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2292,14 +2286,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,11 +2303,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2325,7 +2319,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2342,11 +2336,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2358,7 +2352,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2375,11 +2369,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -2391,7 +2385,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2408,11 +2402,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2424,7 +2418,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2441,11 +2435,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2457,14 +2451,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2468,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2484,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,14 +2501,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2523,14 +2517,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2534,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,7 +2550,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2573,11 +2567,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2589,14 +2583,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,11 +2600,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2622,7 +2616,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2639,11 +2633,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2655,7 +2649,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2672,11 +2666,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2688,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,11 +2699,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2721,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,11 +2732,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>30</v>
@@ -2754,7 +2748,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2771,11 +2765,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2787,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,11 +2798,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2820,28 +2814,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2853,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,11 +2864,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2886,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,11 +2897,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2919,7 +2913,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2936,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2952,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,11 +2963,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2985,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,11 +2996,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>30</v>
@@ -3018,7 +3012,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3035,11 +3029,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3051,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3062,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,14 +3078,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,11 +3095,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3117,7 +3111,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3134,14 +3128,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,14 +3144,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,11 +3161,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3183,14 +3177,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,11 +3194,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>30</v>
@@ -3216,14 +3210,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,11 +3227,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3249,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,11 +3260,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3282,7 +3276,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3299,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,7 +3309,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3332,11 +3326,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3348,14 +3342,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3381,7 +3375,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3398,11 +3392,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3414,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,11 +3425,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3447,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3468,7 +3462,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>30</v>
@@ -3480,7 +3474,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3497,11 +3491,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3513,14 +3507,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3524,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,14 +3540,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3557,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>30</v>
@@ -3579,14 +3573,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,14 +3590,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3612,14 +3606,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3623,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3645,7 +3639,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3662,11 +3656,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3678,14 +3672,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,11 +3689,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3711,14 +3705,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3744,7 +3738,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3761,11 +3755,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3777,31 +3771,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,7 +3804,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3823,18 +3817,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,28 +3837,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3876,7 +3870,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3889,15 +3883,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3909,28 +3903,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3942,28 +3936,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3975,28 +3969,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4008,7 +4002,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4021,18 +4015,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,7 +4035,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4054,18 +4048,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,7 +4068,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4087,15 +4081,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4107,28 +4101,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4140,20 +4134,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4173,7 +4167,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4186,7 +4180,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4194,10 +4188,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,28 +4200,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4239,7 +4233,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4252,18 +4246,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4272,28 +4266,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4305,31 +4299,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4338,28 +4332,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4371,28 +4365,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4406,7 +4400,7 @@
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c t="s" r="A98" s="14">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -4414,13 +4408,13 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c t="s" r="G98" s="15">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="16"/>
       <c t="s" r="K98" s="17">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L98" s="17"/>
       <c r="M98" s="17"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -389,6 +389,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>MARK FAST 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -527,6 +533,15 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -794,7 +809,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:43 PM</t>
+    <t>Friday, 30 May, 2025 11:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2590,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,11 +2615,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>30</v>
@@ -2623,7 +2638,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2637,7 +2652,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2666,14 +2681,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,14 +2747,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,11 +2813,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2814,28 +2829,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2847,31 +2862,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2887,7 +2902,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2901,10 +2916,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2963,14 +2978,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2996,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3052,7 +3067,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3118,7 +3133,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3132,10 +3147,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3250,7 +3265,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3264,7 +3279,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3316,7 +3331,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3330,10 +3345,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3375,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3408,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,11 +3440,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3441,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,14 +3473,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3514,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>209</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3613,7 +3628,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>30</v>
@@ -3646,7 +3661,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,14 +3671,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,11 +3737,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,31 +3786,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,31 +3819,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>190</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3844,7 +3859,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3854,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3877,7 +3892,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,11 +3935,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3936,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3976,7 +3991,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,11 +4001,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4002,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4052,14 +4067,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,10 +4104,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>246</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4108,7 +4123,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4167,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4184,14 +4199,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,14 +4215,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,11 +4232,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4233,7 +4248,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4250,11 +4265,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>45</v>
@@ -4266,14 +4281,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4283,11 +4298,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4299,14 +4314,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4316,11 +4331,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>45</v>
@@ -4332,14 +4347,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4349,11 +4364,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4365,14 +4380,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4382,49 +4397,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>264</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>146</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>72</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>239</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4030.3200000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>261</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>262</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>263</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>265</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>63</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>72</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>137</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4086.0599999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>266</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>267</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>268</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4883,10 +4964,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -329,6 +329,18 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -698,6 +710,12 @@
     <t>97.0200</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -719,9 +737,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -761,12 +776,6 @@
     <t>شفرات AVUVA</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
@@ -809,7 +818,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Friday, 30 May, 2025 11:56 PM</t>
+    <t>Friday, 30 May, 2025 11:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2407,24 +2416,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2523,7 +2532,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2556,7 +2565,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2648,11 +2657,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>30</v>
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2862,24 +2871,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2902,24 +2911,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3051,7 +3060,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3067,7 +3076,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3150,7 +3159,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3463,7 +3472,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3529,7 +3538,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,14 +3548,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3612,7 +3621,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3694,7 +3703,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3746,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,31 +3861,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,7 +3894,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4057,7 +4066,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,14 +4109,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,10 +4179,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4189,7 +4198,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4255,7 +4264,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4298,11 +4307,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4331,11 +4340,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>45</v>
@@ -4354,7 +4363,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4364,11 +4373,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4387,7 +4396,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4397,11 +4406,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>45</v>
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4430,11 +4439,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4446,14 +4455,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4463,49 +4472,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>267</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>150</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>72</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>244</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4086.0599999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>266</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>267</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>268</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>63</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>72</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>141</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4191.0600000000004</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>269</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>270</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>271</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4974,10 +5049,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 12:02 AM</t>
+    <t>Saturday, 31 May, 2025 12:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-30_00-00.xlsx
+++ b/DaySale_2025-05-30_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 12:06 AM</t>
+    <t>Saturday, 31 May, 2025 12:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
